--- a/study03/report/correlation/signedup-participants/SimpleCorrPairAnalysis-strong.xlsx
+++ b/study03/report/correlation/signedup-participants/SimpleCorrPairAnalysis-strong.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="70">
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -28,7 +28,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -58,10 +58,10 @@
     <t>GiS/K-IntrM</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -115,7 +115,7 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t>Interest/Enjoyment</t>
@@ -124,10 +124,10 @@
     <t>GiS/K-Int/E</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
   </si>
   <si>
     <t>w/o-gamified</t>
@@ -169,7 +169,7 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Perceived Choice in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Perceived Choice</t>
@@ -178,13 +178,13 @@
     <t>GiS/K-PrcvC</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Perceived Choice in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Perceived Choice in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Pressure/Tension</t>
@@ -193,13 +193,13 @@
     <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Effort/Importance in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Effort/Importance</t>
@@ -208,13 +208,13 @@
     <t>GiS/K-Eff/I</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Effort/Importance in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Effort/Importance in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Relevance in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Relevance</t>
@@ -223,10 +223,10 @@
     <t>GiS/K-Rlvnc</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Relevance in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Relevance in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in ont-gamified.Master</t>
   </si>
 </sst>
 </file>
